--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6.06764287963059E-14</v>
+        <v>4.661320246727603E-13</v>
       </c>
       <c r="E2">
-        <v>6.06764287963059E-14</v>
+        <v>4.661320246727603E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.247934025340656E-69</v>
+        <v>3.151212819715415E-42</v>
       </c>
       <c r="E3">
-        <v>1.247934025340656E-69</v>
+        <v>3.151212819715415E-42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.622457571534772E-26</v>
+        <v>4.719402372206117E-26</v>
       </c>
       <c r="E4">
-        <v>1.622457571534772E-26</v>
+        <v>4.719402372206117E-26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.100524017767536E-10</v>
+        <v>7.808695147679701E-09</v>
       </c>
       <c r="E5">
-        <v>2.100524017767536E-10</v>
+        <v>7.808695147679701E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.220446049250313E-16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.152361132230335E-29</v>
+        <v>5.745772629094356E-31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.032685173188991E-11</v>
+        <v>6.764328687319019E-25</v>
       </c>
       <c r="E9">
-        <v>0.9999999999896731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.28963914035295E-07</v>
+        <v>3.441526873966667E-15</v>
       </c>
       <c r="E10">
-        <v>0.999999871036086</v>
+        <v>0.9999999999999966</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.568503552244178E-22</v>
+        <v>8.975262635667823E-12</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.9999999999910247</v>
       </c>
       <c r="F11">
-        <v>22.41004180908203</v>
+        <v>24.42014694213867</v>
       </c>
       <c r="G11">
         <v>0.5</v>
